--- a/results/stratified_by_gender/MLCA Model fitting information_Women.xlsx
+++ b/results/stratified_by_gender/MLCA Model fitting information_Women.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccwang\Documents\GitHub\LSHTMproject\results\stratified_by_gender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A20FF2-BBBE-4000-9A9B-AE37C287B95E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FE555F-E91C-4D88-B274-269B6F5F3824}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8010" xr2:uid="{EA58B4B7-9670-4B66-B1EF-1FC8A46BCD21}"/>
   </bookViews>
@@ -419,7 +419,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -554,6 +554,27 @@
       <c r="B5">
         <v>2</v>
       </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>149</v>
+      </c>
+      <c r="E5">
+        <v>-97976.832999999999</v>
+      </c>
+      <c r="F5">
+        <v>196251.666</v>
+      </c>
+      <c r="G5">
+        <v>197380.18299999999</v>
+      </c>
+      <c r="H5">
+        <v>196906.674</v>
+      </c>
+      <c r="I5">
+        <v>0.60099999999999998</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6">
@@ -657,6 +678,27 @@
       <c r="B10">
         <v>3</v>
       </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>224</v>
+      </c>
+      <c r="E10">
+        <v>-96641.607000000004</v>
+      </c>
+      <c r="F10">
+        <v>193731.21400000001</v>
+      </c>
+      <c r="G10">
+        <v>195427.777</v>
+      </c>
+      <c r="H10">
+        <v>194715.924</v>
+      </c>
+      <c r="I10">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11">
@@ -709,6 +751,27 @@
       </c>
       <c r="B14">
         <v>4</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>239</v>
+      </c>
+      <c r="E14">
+        <v>-95897.654999999999</v>
+      </c>
+      <c r="F14">
+        <v>192273.31099999999</v>
+      </c>
+      <c r="G14">
+        <v>194083.48300000001</v>
+      </c>
+      <c r="H14">
+        <v>193323.96100000001</v>
+      </c>
+      <c r="I14">
+        <v>0.69</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
@@ -810,5 +873,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/results/stratified_by_gender/MLCA Model fitting information_Women.xlsx
+++ b/results/stratified_by_gender/MLCA Model fitting information_Women.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccwang\Documents\GitHub\LSHTMproject\results\stratified_by_gender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FE555F-E91C-4D88-B274-269B6F5F3824}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E8C4B9-85EF-42D6-AF4D-8C28107FC5A4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8010" xr2:uid="{EA58B4B7-9670-4B66-B1EF-1FC8A46BCD21}"/>
   </bookViews>
@@ -419,7 +419,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -790,15 +790,36 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>2</v>
       </c>
       <c r="B17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>149</v>
+      </c>
+      <c r="E17">
+        <v>-95909.202000000005</v>
+      </c>
+      <c r="F17">
+        <v>192116.40400000001</v>
+      </c>
+      <c r="G17">
+        <v>193244.92199999999</v>
+      </c>
+      <c r="H17">
+        <v>192771.41200000001</v>
+      </c>
+      <c r="I17">
+        <v>0.69799999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>3</v>
       </c>
@@ -806,7 +827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>4</v>
       </c>
@@ -814,7 +835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>5</v>
       </c>
@@ -822,7 +843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>6</v>
       </c>
@@ -830,7 +851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>2</v>
       </c>
@@ -838,7 +859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>3</v>
       </c>
@@ -846,7 +867,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>4</v>
       </c>
@@ -854,7 +875,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>5</v>
       </c>
@@ -862,7 +883,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>6</v>
       </c>

--- a/results/stratified_by_gender/MLCA Model fitting information_Women.xlsx
+++ b/results/stratified_by_gender/MLCA Model fitting information_Women.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccwang\Documents\GitHub\LSHTMproject\results\stratified_by_gender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E8C4B9-85EF-42D6-AF4D-8C28107FC5A4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4FEF4E-BC7F-4B05-943C-E2249D97545C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8010" xr2:uid="{EA58B4B7-9670-4B66-B1EF-1FC8A46BCD21}"/>
   </bookViews>
@@ -419,7 +419,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -744,6 +744,27 @@
       <c r="B13">
         <v>4</v>
       </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>179</v>
+      </c>
+      <c r="E13">
+        <v>-96104.664000000004</v>
+      </c>
+      <c r="F13">
+        <v>192567.329</v>
+      </c>
+      <c r="G13">
+        <v>193923.06400000001</v>
+      </c>
+      <c r="H13">
+        <v>193354.21799999999</v>
+      </c>
+      <c r="I13">
+        <v>0.68400000000000005</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14">
@@ -825,6 +846,27 @@
       </c>
       <c r="B18">
         <v>5</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>224</v>
+      </c>
+      <c r="E18">
+        <v>-95523.534</v>
+      </c>
+      <c r="F18">
+        <v>191495.06899999999</v>
+      </c>
+      <c r="G18">
+        <v>193191.63200000001</v>
+      </c>
+      <c r="H18">
+        <v>192479.77900000001</v>
+      </c>
+      <c r="I18">
+        <v>0.69699999999999995</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
